--- a/medicine/Handicap/Le_Tueur_aveugle/Le_Tueur_aveugle.xlsx
+++ b/medicine/Handicap/Le_Tueur_aveugle/Le_Tueur_aveugle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tueur aveugle (The Dark Eyes of London) est un thriller britannique coécrit et réalisé par Walter Summers, sorti en 1939.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Londres, l'inspecteur Larry Holt de Scotland Yard enquête sur une série de noyades suspectes dans la Tamise. Un cinquième cadavre a été repêché et les investigations du détective le conduisent à un agent d’assurances nommé Feodor Orloff, toutes les victimes ayant souscrit, peu avant leur décès, une assurance dont le bénéficiaire est un certain professeur John Dearborn. Ce dernier est le directeur d'un refuge, parrainé par Orloff dans lequel il est également docteur, destiné aux aveugles nécessiteux et parait au-dessus de tous soupçons mais Holt poursuit son enquête, secondé par Diana Stuart dont le père vient de se noyer dans la Tamise. Celle-ci réussit à être engagée comme secrétaire dans le pensionnat de Dearborn. Après avoir découvert un bouton de manchette de son paternel dans la résidence, elle comprend que Dearborn n'est d'autre qu'Orloff déguisé et que son homme de main Jake, un aveugle physiquement monstrueux, a tué les personnes, dont son père, avant de maquiller leur meurtre en noyade. Démasqué, Orloff oblige Jake à se débarrasser d'elle... 
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Dark Eyes of London
 Titre français : Le Tueur aveugle
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Béla Lugosi : docteur Feodor Orloff / professeur John Dearborn
 Hugh Williams : inspecteur Larry Holt
